--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H2">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I2">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J2">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>331.811445186442</v>
+        <v>297.9728315322933</v>
       </c>
       <c r="R2">
-        <v>2986.303006677978</v>
+        <v>2681.75548379064</v>
       </c>
       <c r="S2">
-        <v>0.009154113901400146</v>
+        <v>0.009841016041142384</v>
       </c>
       <c r="T2">
-        <v>0.009154113901400147</v>
+        <v>0.009841016041142386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H3">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I3">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J3">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>8979.758186841287</v>
+        <v>8625.247465481461</v>
       </c>
       <c r="R3">
-        <v>80817.82368157158</v>
+        <v>77627.22718933316</v>
       </c>
       <c r="S3">
-        <v>0.247736268419515</v>
+        <v>0.2848622078400011</v>
       </c>
       <c r="T3">
-        <v>0.2477362684195151</v>
+        <v>0.2848622078400011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H4">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I4">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J4">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>12256.24668823773</v>
+        <v>6019.916114223346</v>
       </c>
       <c r="R4">
-        <v>110306.2201941396</v>
+        <v>54179.24502801012</v>
       </c>
       <c r="S4">
-        <v>0.3381290181981068</v>
+        <v>0.1988170892687007</v>
       </c>
       <c r="T4">
-        <v>0.3381290181981068</v>
+        <v>0.1988170892687008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H5">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I5">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J5">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>858.9771321043121</v>
+        <v>917.8506225779021</v>
       </c>
       <c r="R5">
-        <v>7730.794188938808</v>
+        <v>8260.655603201119</v>
       </c>
       <c r="S5">
-        <v>0.02369771935251559</v>
+        <v>0.03031344385900074</v>
       </c>
       <c r="T5">
-        <v>0.02369771935251559</v>
+        <v>0.03031344385900074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H6">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I6">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J6">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>9196.189567855343</v>
+        <v>6110.971750535511</v>
       </c>
       <c r="R6">
-        <v>82765.70611069808</v>
+        <v>54998.7457548196</v>
       </c>
       <c r="S6">
-        <v>0.2537072424241241</v>
+        <v>0.2018243432286556</v>
       </c>
       <c r="T6">
-        <v>0.2537072424241241</v>
+        <v>0.2018243432286556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>0.3527317242697778</v>
+        <v>0.3297789302106667</v>
       </c>
       <c r="R7">
-        <v>3.174585518428</v>
+        <v>2.968010371896</v>
       </c>
       <c r="S7">
-        <v>9.731268849959346E-06</v>
+        <v>1.089146190122446E-05</v>
       </c>
       <c r="T7">
-        <v>9.731268849959348E-06</v>
+        <v>1.089146190122446E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>9.545920234880446</v>
@@ -948,10 +948,10 @@
         <v>85.91328211392401</v>
       </c>
       <c r="S8">
-        <v>0.0002633557172046174</v>
+        <v>0.0003152688574855626</v>
       </c>
       <c r="T8">
-        <v>0.0002633557172046175</v>
+        <v>0.0003152688574855626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>13.02898706519511</v>
+        <v>6.662491630185333</v>
       </c>
       <c r="R9">
-        <v>117.260883586756</v>
+        <v>59.962424671668</v>
       </c>
       <c r="S9">
-        <v>0.0003594476120245012</v>
+        <v>0.0002200391447417076</v>
       </c>
       <c r="T9">
-        <v>0.0003594476120245013</v>
+        <v>0.0002200391447417076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.156892</v>
       </c>
       <c r="I10">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J10">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>0.9131345205564446</v>
+        <v>1.015823472396445</v>
       </c>
       <c r="R10">
-        <v>8.218210685008001</v>
+        <v>9.142411251568001</v>
       </c>
       <c r="S10">
-        <v>2.519182966632538E-05</v>
+        <v>3.354914954969294E-05</v>
       </c>
       <c r="T10">
-        <v>2.519182966632538E-05</v>
+        <v>3.354914954969294E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.156892</v>
       </c>
       <c r="I11">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J11">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>9.775997332336447</v>
+        <v>6.763266691382223</v>
       </c>
       <c r="R11">
-        <v>87.983975991028</v>
+        <v>60.86940022244001</v>
       </c>
       <c r="S11">
-        <v>0.0002697031533367024</v>
+        <v>0.0002233673978199693</v>
       </c>
       <c r="T11">
-        <v>0.0002697031533367024</v>
+        <v>0.0002233673978199692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H12">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I12">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J12">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>12.79429943752633</v>
+        <v>44.11924670534933</v>
       </c>
       <c r="R12">
-        <v>115.148694937737</v>
+        <v>397.073220348144</v>
       </c>
       <c r="S12">
-        <v>0.0003529729791988547</v>
+        <v>0.001457106717809628</v>
       </c>
       <c r="T12">
-        <v>0.0003529729791988547</v>
+        <v>0.001457106717809628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H13">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I13">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J13">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>346.2500067002524</v>
+        <v>1277.09435409726</v>
       </c>
       <c r="R13">
-        <v>3116.250060302271</v>
+        <v>11493.84918687534</v>
       </c>
       <c r="S13">
-        <v>0.009552449277069682</v>
+        <v>0.04217802663449012</v>
       </c>
       <c r="T13">
-        <v>0.009552449277069682</v>
+        <v>0.04217802663449012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H14">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I14">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J14">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>472.5879483192444</v>
+        <v>891.3368471317947</v>
       </c>
       <c r="R14">
-        <v>4253.291534873199</v>
+        <v>8022.031624186153</v>
       </c>
       <c r="S14">
-        <v>0.01303789839109545</v>
+        <v>0.02943778520201976</v>
       </c>
       <c r="T14">
-        <v>0.01303789839109545</v>
+        <v>0.02943778520201976</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H15">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I15">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J15">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>33.12125243888134</v>
+        <v>135.9012425660836</v>
       </c>
       <c r="R15">
-        <v>298.091271949932</v>
+        <v>1223.111183094752</v>
       </c>
       <c r="S15">
-        <v>0.0009137590694383195</v>
+        <v>0.004488349831179381</v>
       </c>
       <c r="T15">
-        <v>0.0009137590694383195</v>
+        <v>0.004488349831179381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H16">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I16">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J16">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>354.5953725293764</v>
+        <v>904.8189691820179</v>
       </c>
       <c r="R16">
-        <v>3191.358352764387</v>
+        <v>8143.370722638161</v>
       </c>
       <c r="S16">
-        <v>0.009782683738408798</v>
+        <v>0.02988305324435303</v>
       </c>
       <c r="T16">
-        <v>0.009782683738408796</v>
+        <v>0.02988305324435303</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H17">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>14.82165027056322</v>
+        <v>16.42798789725133</v>
       </c>
       <c r="R17">
-        <v>133.394852435069</v>
+        <v>147.851891075262</v>
       </c>
       <c r="S17">
-        <v>0.0004089041434577916</v>
+        <v>0.0005425598420808452</v>
       </c>
       <c r="T17">
-        <v>0.0004089041434577916</v>
+        <v>0.0005425598420808451</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H18">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I18">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J18">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>401.1158665271586</v>
+        <v>475.531477970906</v>
       </c>
       <c r="R18">
-        <v>3610.042798744427</v>
+        <v>4279.783301738154</v>
       </c>
       <c r="S18">
-        <v>0.0110661051121526</v>
+        <v>0.01570516640297342</v>
       </c>
       <c r="T18">
-        <v>0.0110661051121526</v>
+        <v>0.01570516640297342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H19">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I19">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J19">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>547.4729840639959</v>
+        <v>331.8930405781357</v>
       </c>
       <c r="R19">
-        <v>4927.256856575963</v>
+        <v>2987.037365203221</v>
       </c>
       <c r="S19">
-        <v>0.01510384926971176</v>
+        <v>0.01096128368306954</v>
       </c>
       <c r="T19">
-        <v>0.01510384926971176</v>
+        <v>0.01096128368306954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H20">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I20">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J20">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>38.36955845603156</v>
+        <v>50.60340179893289</v>
       </c>
       <c r="R20">
-        <v>345.326026104284</v>
+        <v>455.4306161903961</v>
       </c>
       <c r="S20">
-        <v>0.001058550913623807</v>
+        <v>0.001671256021157425</v>
       </c>
       <c r="T20">
-        <v>0.001058550913623807</v>
+        <v>0.001671256021157424</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H21">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I21">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J21">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>410.7836169423466</v>
+        <v>336.9131656802145</v>
       </c>
       <c r="R21">
-        <v>3697.052552481119</v>
+        <v>3032.218491121931</v>
       </c>
       <c r="S21">
-        <v>0.01133282191699703</v>
+        <v>0.01112708111971518</v>
       </c>
       <c r="T21">
-        <v>0.01133282191699703</v>
+        <v>0.01112708111971518</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.047190333333333</v>
+        <v>8.210544666666665</v>
       </c>
       <c r="H22">
-        <v>9.141571000000001</v>
+        <v>24.631634</v>
       </c>
       <c r="I22">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="J22">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>20.55249535581545</v>
+        <v>51.77443024412133</v>
       </c>
       <c r="R22">
-        <v>184.972458202339</v>
+        <v>465.969872197092</v>
       </c>
       <c r="S22">
-        <v>0.0005670084205185204</v>
+        <v>0.001709931056241905</v>
       </c>
       <c r="T22">
-        <v>0.0005670084205185205</v>
+        <v>0.001709931056241905</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.047190333333333</v>
+        <v>8.210544666666665</v>
       </c>
       <c r="H23">
-        <v>9.141571000000001</v>
+        <v>24.631634</v>
       </c>
       <c r="I23">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="J23">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>556.2087779332041</v>
+        <v>1498.684530879644</v>
       </c>
       <c r="R23">
-        <v>5005.879001398837</v>
+        <v>13488.1607779168</v>
       </c>
       <c r="S23">
-        <v>0.01534485497719407</v>
+        <v>0.04949638674491076</v>
       </c>
       <c r="T23">
-        <v>0.01534485497719407</v>
+        <v>0.04949638674491076</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.047190333333333</v>
+        <v>8.210544666666665</v>
       </c>
       <c r="H24">
-        <v>9.141571000000001</v>
+        <v>24.631634</v>
       </c>
       <c r="I24">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="J24">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>759.1554082716948</v>
+        <v>1045.993775098721</v>
       </c>
       <c r="R24">
-        <v>6832.398674445253</v>
+        <v>9413.943975888486</v>
       </c>
       <c r="S24">
-        <v>0.0209438076262807</v>
+        <v>0.03454557070437476</v>
       </c>
       <c r="T24">
-        <v>0.0209438076262807</v>
+        <v>0.03454557070437477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.047190333333333</v>
+        <v>8.210544666666665</v>
       </c>
       <c r="H25">
-        <v>9.141571000000001</v>
+        <v>24.631634</v>
       </c>
       <c r="I25">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="J25">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>53.20528804666712</v>
+        <v>159.4816305527262</v>
       </c>
       <c r="R25">
-        <v>478.8475924200041</v>
+        <v>1435.334674974536</v>
       </c>
       <c r="S25">
-        <v>0.001467843481596383</v>
+        <v>0.005267128806563122</v>
       </c>
       <c r="T25">
-        <v>0.001467843481596383</v>
+        <v>0.005267128806563122</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.047190333333333</v>
+        <v>8.210544666666665</v>
       </c>
       <c r="H26">
-        <v>9.141571000000001</v>
+        <v>24.631634</v>
       </c>
       <c r="I26">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="J26">
-        <v>0.05403821331210213</v>
+        <v>0.126087115052153</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>569.6145992744322</v>
+        <v>1061.815196354931</v>
       </c>
       <c r="R26">
-        <v>5126.53139346989</v>
+        <v>9556.33676719438</v>
       </c>
       <c r="S26">
-        <v>0.01571469880651246</v>
+        <v>0.03506809774006247</v>
       </c>
       <c r="T26">
-        <v>0.01571469880651246</v>
+        <v>0.03506809774006247</v>
       </c>
     </row>
   </sheetData>
